--- a/需求文档+通用说明/A107041高新技术企业优惠情况及明细表.xlsx
+++ b/需求文档+通用说明/A107041高新技术企业优惠情况及明细表.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="A107041高新技术企业优惠情况及明细表" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>A107041  高新技术企业优惠情况及明细表</t>
   </si>
@@ -193,20 +194,103 @@
   </si>
   <si>
     <t>系统取值，不可修改</t>
+  </si>
+  <si>
+    <t>a4:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>a5:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>a6:</t>
+  </si>
+  <si>
+    <t>a7:</t>
+  </si>
+  <si>
+    <t>a8:</t>
+  </si>
+  <si>
+    <t>a9:</t>
+  </si>
+  <si>
+    <t>a10:</t>
+  </si>
+  <si>
+    <t>a11:</t>
+  </si>
+  <si>
+    <t>a12:</t>
+  </si>
+  <si>
+    <t>a13:</t>
+  </si>
+  <si>
+    <t>a14:</t>
+  </si>
+  <si>
+    <t>a15:</t>
+  </si>
+  <si>
+    <t>a16:</t>
+  </si>
+  <si>
+    <t>a17:</t>
+  </si>
+  <si>
+    <t>a18:</t>
+  </si>
+  <si>
+    <t>a19:</t>
+  </si>
+  <si>
+    <t>a20:</t>
+  </si>
+  <si>
+    <t>a21:</t>
+  </si>
+  <si>
+    <t>a22:</t>
+  </si>
+  <si>
+    <t>a23:</t>
+  </si>
+  <si>
+    <t>a24:</t>
+  </si>
+  <si>
+    <t>a25:</t>
+  </si>
+  <si>
+    <t>a26:</t>
+  </si>
+  <si>
+    <t>a27:</t>
+  </si>
+  <si>
+    <t>a28:</t>
+  </si>
+  <si>
+    <t>a29:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,14 +341,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -273,135 +349,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,194 +374,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -711,251 +479,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -980,13 +509,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -995,17 +524,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1013,55 +560,43 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,78 +608,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
-    <cellStyle name="常规_Sheet1" xfId="50"/>
-    <cellStyle name="常规_优惠项目明细表 20130323" xfId="51"/>
-    <cellStyle name="常规_税收优惠明细表附表8.21" xfId="52"/>
+    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规_Sheet1" xfId="3"/>
+    <cellStyle name="常规_税收优惠明细表附表8.21" xfId="5"/>
+    <cellStyle name="常规_优惠项目明细表 20130323" xfId="4"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
-      <color rgb="0096DAF7"/>
+      <color rgb="FF96DAF7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1436,34 +919,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.8333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="22.77734375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.16666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.66666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="78.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="256" width="22.8333333333333" style="1"/>
-    <col min="257" max="16384" width="22.8333333333333" style="5"/>
+    <col min="1" max="1" width="5.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="78.6640625" style="1" customWidth="1"/>
+    <col min="8" max="256" width="22.77734375" style="1"/>
+    <col min="257" max="16384" width="22.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" spans="1:5">
+    <row r="1" spans="1:256" s="1" customFormat="1" ht="20.399999999999999">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="20" customHeight="1" spans="1:256">
+    <row r="2" spans="1:256" s="2" customFormat="1" ht="19.95" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1734,504 +1218,728 @@
       <c r="IU2" s="10"/>
       <c r="IV2" s="10"/>
     </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:6">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:256" ht="25.5" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:256" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A5" s="14">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:256" s="3" customFormat="1" ht="45" customHeight="1">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A6" s="14">
+    <row r="6" spans="1:256" s="3" customFormat="1" ht="45" customHeight="1">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A7" s="14">
+    <row r="7" spans="1:256" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A8" s="12">
+    <row r="8" spans="1:256" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A9" s="12">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:256" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A10" s="12">
+    <row r="10" spans="1:256" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="24" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A11" s="12">
+    <row r="11" spans="1:256" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="24" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A12" s="12">
+    <row r="12" spans="1:256" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="48" customHeight="1" spans="1:6">
-      <c r="A13" s="14">
+    <row r="13" spans="1:256" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="A13" s="12">
         <v>9</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="23" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A14" s="12">
+    <row r="14" spans="1:256" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="24" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A15" s="12">
+    <row r="15" spans="1:256" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="24" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A16" s="12">
+    <row r="16" spans="1:256" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="24" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="46" customHeight="1" spans="1:6">
-      <c r="A17" s="14">
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="46.05" customHeight="1">
+      <c r="A17" s="12">
         <v>13</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="23" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="48" customHeight="1" spans="1:6">
-      <c r="A18" s="12">
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="23" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A19" s="12">
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="23" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A20" s="12">
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="34" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="23" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A21" s="12">
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="24" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A22" s="12">
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="34" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="24" t="s">
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A23" s="12">
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="24" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A24" s="12">
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="11">
         <v>20</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="24" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A25" s="12">
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="34" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="24" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A26" s="12">
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="11">
         <v>22</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="34" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="24" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A27" s="12">
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="11">
         <v>23</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="24" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A28" s="12">
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="11">
         <v>24</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="34" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="24" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A29" s="12">
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="11">
         <v>25</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="34" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="23" t="s">
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A30" s="12">
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="11">
         <v>26</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="34" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="24" t="s">
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A31" s="12">
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="11">
         <v>27</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="34" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="24" t="s">
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A32" s="12">
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="45" customHeight="1">
+      <c r="A32" s="11">
         <v>28</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="34" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="24" t="s">
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="37"/>
-    </row>
-    <row r="33" s="3" customFormat="1" ht="12" spans="1:6">
-      <c r="A33" s="12">
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="12">
+      <c r="A33" s="11">
         <v>29</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="17" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1">
-      <c r="A34" s="40"/>
-    </row>
-    <row r="35" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1">
-      <c r="A35" s="40"/>
-    </row>
-    <row r="36" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1">
-      <c r="A36" s="40"/>
-    </row>
-    <row r="37" ht="15" customHeight="1"/>
+    <row r="34" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="18"/>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="18"/>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="18"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B32"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B32"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.75" right="0.75" top="0.979166666666667" bottom="0.979166666666667" header="0.509027777777778" footer="0.509027777777778"/>
+  <pageMargins left="0.75" right="0.75" top="0.97916666666666696" bottom="0.97916666666666696" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>